--- a/biology/Neurosciences/Effet_Troxler/Effet_Troxler.xlsx
+++ b/biology/Neurosciences/Effet_Troxler/Effet_Troxler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'effet Troxler est une illusion d'optique affectant la perception visuelle. Lorsqu'on fixe son attention sur un point particulier de notre champ de vision, certains traits de l'environnement visuel en périphérie du point de fixation semblent disparaître après une assez courte période de temps. 
 Le phénomène a été identifié la première fois par le médecin et naturaliste suisse Ignaz Paul Vital Troxler en 1804, qui exerçait alors à Vienne. Aujourd'hui, on le considère comme un effet normal de l'adaptation visuelle dans un environnement anormalement stable.
